--- a/BalanceSheet/NVR_bal.xlsx
+++ b/BalanceSheet/NVR_bal.xlsx
@@ -507,16 +507,16 @@
         <v>1830000000.0</v>
       </c>
       <c r="C4" s="0" t="n">
-        <v>1709000000.0</v>
+        <v>54104000.0</v>
       </c>
       <c r="D4" s="0" t="n">
-        <v>1763000000.0</v>
+        <v>-160636000.0</v>
       </c>
       <c r="E4" s="0" t="n">
-        <v>1603000000.0</v>
+        <v>-87500000.0</v>
       </c>
       <c r="F4" s="0" t="n">
-        <v>1516000000.0</v>
+        <v>-168352000.0</v>
       </c>
       <c r="G4" s="0" t="n">
         <v>1347288000.0</v>
@@ -1983,16 +1983,16 @@
         <v>414000000.0</v>
       </c>
       <c r="C14" s="0" t="n">
-        <v>382000000.0</v>
+        <v>58746000.0</v>
       </c>
       <c r="D14" s="0" t="n">
-        <v>388000000.0</v>
+        <v>83409000.0</v>
       </c>
       <c r="E14" s="0" t="n">
-        <v>337000000.0</v>
+        <v>65950000.0</v>
       </c>
       <c r="F14" s="0" t="n">
-        <v>367000000.0</v>
+        <v>-39438000.0</v>
       </c>
       <c r="G14" s="0" t="n">
         <v>306972000.0</v>
@@ -2901,7 +2901,7 @@
         </is>
       </c>
       <c r="C20" s="0" t="n">
-        <v>-133000000.0</v>
+        <v>-17565000.0</v>
       </c>
       <c r="D20" s="0" t="inlineStr">
         <is>
